--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_6_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_6_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.88000000000029</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.453531546132943e-16</v>
+        <v>1.769279720518178e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.50805593800931</v>
+        <v>48.6741721775787</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.09868086080628, 53.91743101521233]</t>
+          <t>[40.85606489695125, 56.492279458206156]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.591237119836272</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 1.7925003128590413]</t>
+          <t>[1.452868674633116, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.05775917207173</v>
+        <v>60.5775533551185</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.60817022388444, 65.50734812025902]</t>
+          <t>[55.511764414475365, 65.64334229576164]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.83231231231253</v>
+        <v>17.83703703703728</v>
       </c>
       <c r="X2" t="n">
-        <v>17.0673873873876</v>
+        <v>17.16212212212235</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.59723723723747</v>
+        <v>18.51195195195221</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9300000000003</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.453531546132943e-16</v>
+        <v>1.769279720518178e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.13029759568624</v>
+        <v>51.33129916732155</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.22999831436393, 57.03059687700854]</t>
+          <t>[40.33012729100157, 62.332471043641526]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.415131825941349</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.679289766783734]</t>
+          <t>[0.05660527303765317, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.01450859733313026</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.01450859733313026</v>
       </c>
       <c r="S3" t="n">
-        <v>60.26679428290507</v>
+        <v>64.35201009581334</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[53.675644545258905, 66.85794402055123]</t>
+          <t>[58.01248400614553, 70.69153618548116]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.54036036036059</v>
+        <v>22.36504504504526</v>
       </c>
       <c r="X3" t="n">
-        <v>17.53429429429451</v>
+        <v>21.52108108108128</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.54642642642667</v>
+        <v>23.20900900900923</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_6_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_6_square_01_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9500000000003</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.769279720518178e-16</v>
+        <v>1.943497636105307e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.6741721775787</v>
+        <v>48.14550156776517</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.85606489695125, 56.492279458206156]</t>
+          <t>[40.29143133084968, 55.99957180468065]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 1.8050792624229643]</t>
+          <t>[1.440289725069193, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.5775533551185</v>
+        <v>62.18829494280782</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.511764414475365, 65.64334229576164]</t>
+          <t>[56.98221503690107, 67.39437484871458]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.83703703703728</v>
+        <v>17.78868868868892</v>
       </c>
       <c r="X2" t="n">
-        <v>17.16212212212235</v>
+        <v>17.11741741741763</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.51195195195221</v>
+        <v>18.4599599599602</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.42000000000022</v>
+        <v>23.58000000000025</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.769279720518178e-16</v>
+        <v>1.943497636105307e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.33129916732155</v>
+        <v>51.01294717672388</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.33012729100157, 62.332471043641526]</t>
+          <t>[38.14461705591465, 63.88127729753312]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.6603948521059628</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.05660527303765317, 0.5094474573388856]</t>
+          <t>[0.42139481039142446, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.01450859733313026</v>
+        <v>1.302739101038952e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01450859733313026</v>
+        <v>1.302739101038952e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>64.35201009581334</v>
+        <v>61.91939075950515</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.01248400614553, 70.69153618548116]</t>
+          <t>[55.35052393062728, 68.48825758838302]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.36504504504526</v>
+        <v>21.10162162162184</v>
       </c>
       <c r="X3" t="n">
-        <v>21.52108108108128</v>
+        <v>20.2046846846849</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.20900900900923</v>
+        <v>21.99855855855879</v>
       </c>
     </row>
   </sheetData>
